--- a/Assets/SceneRebuilder/Documents/闵行模型/模型修改进度表.xlsx
+++ b/Assets/SceneRebuilder/Documents/闵行模型/模型修改进度表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LocationProject\LocationProject\Assets\Models\闵行模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LocationProject\LocationProject\Assets\SceneRebuilder\Documents\闵行模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简化设备模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5_启动锅炉房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +160,6 @@
     <t>12_给水泵房</t>
   </si>
   <si>
-    <t>外墙贴图丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3_继电器楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +173,122 @@
   </si>
   <si>
     <t>LOD2结合替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失柜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新模型检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多了一下柜子和罐子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新模处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待LOD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOD1地下的那个板子没有了，另外没有做平滑组</t>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防站的门的结构整理一下，这些门结构都不规范。门框放到另外的父物体下，是楼层下的环境物体。
+消防站厕所的模型变形了，按照照片修复一下，优先级最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73_润滑油箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑油箱的 2 3 差别不大，做一个LOD2，栏杠只需要最上面的一条，下面的就一个箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调压站的围栏也做一下；升压站的围栏拆一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道焊缝更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有，外部管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +313,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -220,10 +326,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,14 +347,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -273,16 +439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>83586</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>151709</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>416961</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -299,7 +465,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="114300"/>
+          <a:off x="11268075" y="161925"/>
           <a:ext cx="17114286" cy="5523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -600,357 +766,552 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I17" activeCellId="1" sqref="I16 I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="7" max="7" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="B19" s="2"/>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40.5">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
         <v>44</v>
       </c>
     </row>
